--- a/Data/Forecasts/DA/2023-12-02_exo[].xlsx
+++ b/Data/Forecasts/DA/2023-12-02_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45262</v>
       </c>
       <c r="B2" t="n">
-        <v>134.0746307373047</v>
+        <v>134.1091918945312</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45262.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>133.6174468994141</v>
+        <v>133.9417114257812</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45262.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>134.6716766357422</v>
+        <v>135.1360931396484</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45262.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>134.1941223144531</v>
+        <v>134.9424743652344</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>131.1204376220703</v>
+        <v>132.00146484375</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45262.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>130.9730834960938</v>
+        <v>131.8153076171875</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45262.125</v>
       </c>
       <c r="B8" t="n">
-        <v>125.885627746582</v>
+        <v>130.0806121826172</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45262.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>125.7567443847656</v>
+        <v>129.9287872314453</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45262.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>126.7784957885742</v>
+        <v>129.3352813720703</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45262.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>126.6648788452148</v>
+        <v>129.2010192871094</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45262.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>133.4644012451172</v>
+        <v>130.80517578125</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45262.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>133.3589782714844</v>
+        <v>130.6780853271484</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45262.25</v>
       </c>
       <c r="B14" t="n">
-        <v>144.0768280029297</v>
+        <v>140.7409362792969</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>143.9767913818359</v>
+        <v>140.6166839599609</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45262.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>163.0484313964844</v>
+        <v>159.1800689697266</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45262.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>162.9529418945312</v>
+        <v>159.0573425292969</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45262.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>171.8278350830078</v>
+        <v>172.2516479492188</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>171.7241516113281</v>
+        <v>172.107666015625</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45262.375</v>
       </c>
       <c r="B20" t="n">
-        <v>181.7439422607422</v>
+        <v>183.6344757080078</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>181.6454925537109</v>
+        <v>183.4949798583984</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>175.1085510253906</v>
+        <v>182.1724090576172</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45262.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>175.0146636962891</v>
+        <v>182.0370025634766</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>168.6393280029297</v>
+        <v>172.1752319335938</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>168.5481719970703</v>
+        <v>172.0420989990234</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45262.5</v>
       </c>
       <c r="B26" t="n">
-        <v>172.3220977783203</v>
+        <v>176.4307556152344</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>172.2310638427734</v>
+        <v>176.2970428466797</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>165.0428619384766</v>
+        <v>169.9020843505859</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45262.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>164.9488372802734</v>
+        <v>169.7642517089844</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>171.1131591796875</v>
+        <v>173.125732421875</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>171.0135345458984</v>
+        <v>172.9806518554688</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45262.625</v>
       </c>
       <c r="B32" t="n">
-        <v>189.4206390380859</v>
+        <v>187.027587890625</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45262.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>189.3137512207031</v>
+        <v>186.873291015625</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>207.0669860839844</v>
+        <v>215.2949523925781</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45262.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>206.9521636962891</v>
+        <v>215.1307525634766</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45262.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>229.4564971923828</v>
+        <v>239.4917907714844</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45262.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>229.3338623046875</v>
+        <v>239.3180694580078</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45262.75</v>
       </c>
       <c r="B38" t="n">
-        <v>206.2825317382812</v>
+        <v>213.1200408935547</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45262.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>206.1527557373047</v>
+        <v>212.9378967285156</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45262.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>171.3497924804688</v>
+        <v>176.8880310058594</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45262.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>171.2136535644531</v>
+        <v>176.6986694335938</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45262.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>154.1243133544922</v>
+        <v>156.5854949951172</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45262.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>153.9822845458984</v>
+        <v>156.3897705078125</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45262.875</v>
       </c>
       <c r="B44" t="n">
-        <v>142.7564239501953</v>
+        <v>140.8339538574219</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45262.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>142.6087799072266</v>
+        <v>140.6324462890625</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>128.1828460693359</v>
+        <v>126.9237670898438</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45262.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>128.0283813476562</v>
+        <v>126.718017578125</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45262.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>114.1501007080078</v>
+        <v>113.9836959838867</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45262.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>113.9940567016602</v>
+        <v>113.7770156860352</v>
       </c>
     </row>
   </sheetData>
